--- a/Tabla Mortalidad.xlsx
+++ b/Tabla Mortalidad.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/11ebf2965e098ef2/Documentos/Escuela/Pensiones/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74088A2B-87B0-483D-84F2-B0CE4C29880A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{74088A2B-87B0-483D-84F2-B0CE4C29880A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1890F9A3-E6B9-4846-A37D-8E7A9BE40EA2}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E7DD2A4F-A778-43BF-8E78-626942A8EAF3}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E7DD2A4F-A778-43BF-8E78-626942A8EAF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hipotesis Fin Dem" sheetId="1" r:id="rId1"/>
@@ -175,7 +175,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -258,26 +258,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -287,7 +272,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,8 +617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{766C0FE1-297E-4664-AEDA-B67C967F9EEB}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,13 +632,13 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1379,8 +1363,12 @@
       <c r="B53" s="3">
         <v>1.6039999999999999E-2</v>
       </c>
-      <c r="C53" s="3"/>
-      <c r="D53" s="4"/>
+      <c r="C53" s="3">
+        <v>0</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
@@ -1389,8 +1377,12 @@
       <c r="B54" s="3">
         <v>1.703E-2</v>
       </c>
-      <c r="C54" s="3"/>
-      <c r="D54" s="4"/>
+      <c r="C54" s="3">
+        <v>0</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
@@ -1399,8 +1391,12 @@
       <c r="B55" s="3">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="C55" s="3"/>
-      <c r="D55" s="4"/>
+      <c r="C55" s="3">
+        <v>0</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
@@ -1409,8 +1405,12 @@
       <c r="B56" s="3">
         <v>1.924E-2</v>
       </c>
-      <c r="C56" s="3"/>
-      <c r="D56" s="4"/>
+      <c r="C56" s="3">
+        <v>0</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
@@ -1419,8 +1419,12 @@
       <c r="B57" s="3">
         <v>2.0449999999999999E-2</v>
       </c>
-      <c r="C57" s="3"/>
-      <c r="D57" s="4"/>
+      <c r="C57" s="3">
+        <v>0</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
@@ -1429,8 +1433,12 @@
       <c r="B58" s="3">
         <v>2.1760000000000002E-2</v>
       </c>
-      <c r="C58" s="3"/>
-      <c r="D58" s="4"/>
+      <c r="C58" s="3">
+        <v>0</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
@@ -1439,8 +1447,12 @@
       <c r="B59" s="3">
         <v>2.316E-2</v>
       </c>
-      <c r="C59" s="3"/>
-      <c r="D59" s="4"/>
+      <c r="C59" s="3">
+        <v>0</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
@@ -1449,8 +1461,12 @@
       <c r="B60" s="3">
         <v>2.4670000000000001E-2</v>
       </c>
-      <c r="C60" s="3"/>
-      <c r="D60" s="4"/>
+      <c r="C60" s="3">
+        <v>0</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
@@ -1459,8 +1475,12 @@
       <c r="B61" s="3">
         <v>2.6280000000000001E-2</v>
       </c>
-      <c r="C61" s="3"/>
-      <c r="D61" s="4"/>
+      <c r="C61" s="3">
+        <v>0</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
@@ -1469,8 +1489,12 @@
       <c r="B62" s="3">
         <v>2.801E-2</v>
       </c>
-      <c r="C62" s="3"/>
-      <c r="D62" s="4"/>
+      <c r="C62" s="3">
+        <v>0</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
@@ -1479,8 +1503,12 @@
       <c r="B63" s="3">
         <v>2.9860000000000001E-2</v>
       </c>
-      <c r="C63" s="3"/>
-      <c r="D63" s="4"/>
+      <c r="C63" s="3">
+        <v>0</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
@@ -1489,8 +1517,12 @@
       <c r="B64" s="3">
         <v>3.1850000000000003E-2</v>
       </c>
-      <c r="C64" s="3"/>
-      <c r="D64" s="4"/>
+      <c r="C64" s="3">
+        <v>0</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
@@ -1499,8 +1531,12 @@
       <c r="B65" s="3">
         <v>3.3989999999999999E-2</v>
       </c>
-      <c r="C65" s="3"/>
-      <c r="D65" s="4"/>
+      <c r="C65" s="3">
+        <v>0</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
@@ -1509,8 +1545,12 @@
       <c r="B66" s="3">
         <v>3.6290000000000003E-2</v>
       </c>
-      <c r="C66" s="3"/>
-      <c r="D66" s="4"/>
+      <c r="C66" s="3">
+        <v>0</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
@@ -1519,8 +1559,12 @@
       <c r="B67" s="3">
         <v>3.875E-2</v>
       </c>
-      <c r="C67" s="3"/>
-      <c r="D67" s="4"/>
+      <c r="C67" s="3">
+        <v>0</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
@@ -1529,8 +1573,12 @@
       <c r="B68" s="3">
         <v>4.1390000000000003E-2</v>
       </c>
-      <c r="C68" s="3"/>
-      <c r="D68" s="4"/>
+      <c r="C68" s="3">
+        <v>0</v>
+      </c>
+      <c r="D68" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
@@ -1539,8 +1587,12 @@
       <c r="B69" s="3">
         <v>4.4229999999999998E-2</v>
       </c>
-      <c r="C69" s="3"/>
-      <c r="D69" s="4"/>
+      <c r="C69" s="3">
+        <v>0</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
@@ -1549,8 +1601,12 @@
       <c r="B70" s="3">
         <v>4.7280000000000003E-2</v>
       </c>
-      <c r="C70" s="3"/>
-      <c r="D70" s="4"/>
+      <c r="C70" s="3">
+        <v>0</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
@@ -1559,8 +1615,12 @@
       <c r="B71" s="3">
         <v>5.0549999999999998E-2</v>
       </c>
-      <c r="C71" s="3"/>
-      <c r="D71" s="4"/>
+      <c r="C71" s="3">
+        <v>0</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
@@ -1569,8 +1629,12 @@
       <c r="B72" s="3">
         <v>5.4059999999999997E-2</v>
       </c>
-      <c r="C72" s="3"/>
-      <c r="D72" s="4"/>
+      <c r="C72" s="3">
+        <v>0</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
@@ -1579,8 +1643,12 @@
       <c r="B73" s="3">
         <v>5.7829999999999999E-2</v>
       </c>
-      <c r="C73" s="3"/>
-      <c r="D73" s="4"/>
+      <c r="C73" s="3">
+        <v>0</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
@@ -1589,8 +1657,12 @@
       <c r="B74" s="3">
         <v>6.1870000000000001E-2</v>
       </c>
-      <c r="C74" s="3"/>
-      <c r="D74" s="4"/>
+      <c r="C74" s="3">
+        <v>0</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
@@ -1599,8 +1671,12 @@
       <c r="B75" s="3">
         <v>6.6210000000000005E-2</v>
       </c>
-      <c r="C75" s="3"/>
-      <c r="D75" s="4"/>
+      <c r="C75" s="3">
+        <v>0</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
@@ -1609,8 +1685,12 @@
       <c r="B76" s="3">
         <v>7.0870000000000002E-2</v>
       </c>
-      <c r="C76" s="3"/>
-      <c r="D76" s="4"/>
+      <c r="C76" s="3">
+        <v>0</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
@@ -1619,8 +1699,12 @@
       <c r="B77" s="3">
         <v>8.1470000000000001E-2</v>
       </c>
-      <c r="C77" s="3"/>
-      <c r="D77" s="4"/>
+      <c r="C77" s="3">
+        <v>0</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
@@ -1629,8 +1713,12 @@
       <c r="B78" s="3">
         <v>9.2069999999999999E-2</v>
       </c>
-      <c r="C78" s="3"/>
-      <c r="D78" s="4"/>
+      <c r="C78" s="3">
+        <v>0</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
@@ -1639,8 +1727,12 @@
       <c r="B79" s="3">
         <v>0.10439</v>
       </c>
-      <c r="C79" s="3"/>
-      <c r="D79" s="4"/>
+      <c r="C79" s="3">
+        <v>0</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
@@ -1649,8 +1741,12 @@
       <c r="B80" s="3">
         <v>0.11835</v>
       </c>
-      <c r="C80" s="3"/>
-      <c r="D80" s="4"/>
+      <c r="C80" s="3">
+        <v>0</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
@@ -1659,8 +1755,12 @@
       <c r="B81" s="3">
         <v>0.13417999999999999</v>
       </c>
-      <c r="C81" s="3"/>
-      <c r="D81" s="4"/>
+      <c r="C81" s="3">
+        <v>0</v>
+      </c>
+      <c r="D81" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
@@ -1669,8 +1769,12 @@
       <c r="B82" s="3">
         <v>0.15212000000000001</v>
       </c>
-      <c r="C82" s="3"/>
-      <c r="D82" s="4"/>
+      <c r="C82" s="3">
+        <v>0</v>
+      </c>
+      <c r="D82" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
@@ -1679,8 +1783,12 @@
       <c r="B83" s="3">
         <v>0.17247000000000001</v>
       </c>
-      <c r="C83" s="3"/>
-      <c r="D83" s="4"/>
+      <c r="C83" s="3">
+        <v>0</v>
+      </c>
+      <c r="D83" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
@@ -1689,8 +1797,12 @@
       <c r="B84" s="3">
         <v>0.19553999999999999</v>
       </c>
-      <c r="C84" s="3"/>
-      <c r="D84" s="4"/>
+      <c r="C84" s="3">
+        <v>0</v>
+      </c>
+      <c r="D84" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
@@ -1699,8 +1811,12 @@
       <c r="B85" s="3">
         <v>0.22170000000000001</v>
       </c>
-      <c r="C85" s="3"/>
-      <c r="D85" s="4"/>
+      <c r="C85" s="3">
+        <v>0</v>
+      </c>
+      <c r="D85" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
@@ -1709,8 +1825,12 @@
       <c r="B86" s="3">
         <v>0.25135000000000002</v>
       </c>
-      <c r="C86" s="3"/>
-      <c r="D86" s="4"/>
+      <c r="C86" s="3">
+        <v>0</v>
+      </c>
+      <c r="D86" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
@@ -1719,8 +1839,12 @@
       <c r="B87" s="3">
         <v>0.28497</v>
       </c>
-      <c r="C87" s="3"/>
-      <c r="D87" s="4"/>
+      <c r="C87" s="3">
+        <v>0</v>
+      </c>
+      <c r="D87" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
@@ -1729,8 +1853,12 @@
       <c r="B88" s="3">
         <v>0.32308999999999999</v>
       </c>
-      <c r="C88" s="3"/>
-      <c r="D88" s="4"/>
+      <c r="C88" s="3">
+        <v>0</v>
+      </c>
+      <c r="D88" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
@@ -1739,8 +1867,12 @@
       <c r="B89" s="3">
         <v>0.36630000000000001</v>
       </c>
-      <c r="C89" s="3"/>
-      <c r="D89" s="4"/>
+      <c r="C89" s="3">
+        <v>0</v>
+      </c>
+      <c r="D89" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
@@ -1749,8 +1881,12 @@
       <c r="B90" s="3">
         <v>0.4153</v>
       </c>
-      <c r="C90" s="3"/>
-      <c r="D90" s="4"/>
+      <c r="C90" s="3">
+        <v>0</v>
+      </c>
+      <c r="D90" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
@@ -1759,8 +1895,12 @@
       <c r="B91" s="3">
         <v>0.47084999999999999</v>
       </c>
-      <c r="C91" s="3"/>
-      <c r="D91" s="4"/>
+      <c r="C91" s="3">
+        <v>0</v>
+      </c>
+      <c r="D91" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
@@ -1769,8 +1909,12 @@
       <c r="B92" s="3">
         <v>0.53383000000000003</v>
       </c>
-      <c r="C92" s="3"/>
-      <c r="D92" s="4"/>
+      <c r="C92" s="3">
+        <v>0</v>
+      </c>
+      <c r="D92" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
@@ -1779,8 +1923,12 @@
       <c r="B93" s="3">
         <v>0.60523000000000005</v>
       </c>
-      <c r="C93" s="3"/>
-      <c r="D93" s="4"/>
+      <c r="C93" s="3">
+        <v>0</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
@@ -1789,8 +1937,12 @@
       <c r="B94" s="3">
         <v>0.68618000000000001</v>
       </c>
-      <c r="C94" s="3"/>
-      <c r="D94" s="4"/>
+      <c r="C94" s="3">
+        <v>0</v>
+      </c>
+      <c r="D94" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
@@ -1799,8 +1951,12 @@
       <c r="B95" s="3">
         <v>0.77795999999999998</v>
       </c>
-      <c r="C95" s="3"/>
-      <c r="D95" s="4"/>
+      <c r="C95" s="3">
+        <v>0</v>
+      </c>
+      <c r="D95" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
@@ -1809,8 +1965,12 @@
       <c r="B96" s="3">
         <v>0.88202000000000003</v>
       </c>
-      <c r="C96" s="3"/>
-      <c r="D96" s="4"/>
+      <c r="C96" s="3">
+        <v>0</v>
+      </c>
+      <c r="D96" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="97" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="5">
@@ -1819,8 +1979,12 @@
       <c r="B97" s="6">
         <v>1</v>
       </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="7"/>
+      <c r="C97" s="3">
+        <v>0</v>
+      </c>
+      <c r="D97" s="4">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
